--- a/public/dummy/barang.xlsx
+++ b/public/dummy/barang.xlsx
@@ -5,28 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EAS PBO\verynewest\Sistem_Peminjaman_Peralatan\public\dummy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EAS PBO\verynewest\Equipment\public\dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4959F72C-68F6-4927-8795-5168F34D66EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B816387A-76D7-4B85-B20F-524B80FCF914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="10">
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>Infocus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="537">
   <si>
     <t>Tersedia</t>
   </si>
@@ -34,22 +39,1609 @@
     <t>Infocus.png</t>
   </si>
   <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
     <t>Mouse.png</t>
   </si>
   <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>komputer</t>
-  </si>
-  <si>
     <t>Komputer.png</t>
+  </si>
+  <si>
+    <t>Headset(1).png</t>
+  </si>
+  <si>
+    <t>Headset(12).png</t>
+  </si>
+  <si>
+    <t>Headset(11).png</t>
+  </si>
+  <si>
+    <t>Headset(10).png</t>
+  </si>
+  <si>
+    <t>Headset(9).png</t>
+  </si>
+  <si>
+    <t>Headset(8).png</t>
+  </si>
+  <si>
+    <t>Headset(6).png</t>
+  </si>
+  <si>
+    <t>Headset(5).png</t>
+  </si>
+  <si>
+    <t>Headset(4).png</t>
+  </si>
+  <si>
+    <t>Headset(3).png</t>
+  </si>
+  <si>
+    <t>Headset(14).png</t>
+  </si>
+  <si>
+    <t>Headset(13).png</t>
+  </si>
+  <si>
+    <t>Headset(2).png</t>
+  </si>
+  <si>
+    <t>Headset(7).png</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>HD1</t>
+  </si>
+  <si>
+    <t>HDMI(1)</t>
+  </si>
+  <si>
+    <t>HDMI(1).png</t>
+  </si>
+  <si>
+    <t>HD2</t>
+  </si>
+  <si>
+    <t>HDMI(2)</t>
+  </si>
+  <si>
+    <t>HDMI(2).png</t>
+  </si>
+  <si>
+    <t>HD3</t>
+  </si>
+  <si>
+    <t>HDMI(3)</t>
+  </si>
+  <si>
+    <t>HDMI(3).png</t>
+  </si>
+  <si>
+    <t>HD4</t>
+  </si>
+  <si>
+    <t>HDMI(4)</t>
+  </si>
+  <si>
+    <t>HDMI(4).png</t>
+  </si>
+  <si>
+    <t>HD5</t>
+  </si>
+  <si>
+    <t>HDMI(5)</t>
+  </si>
+  <si>
+    <t>HDMI(5).png</t>
+  </si>
+  <si>
+    <t>HD6</t>
+  </si>
+  <si>
+    <t>HDMI(6)</t>
+  </si>
+  <si>
+    <t>HDMI(6).png</t>
+  </si>
+  <si>
+    <t>HD7</t>
+  </si>
+  <si>
+    <t>HDMI(7)</t>
+  </si>
+  <si>
+    <t>HDMI(7).png</t>
+  </si>
+  <si>
+    <t>HD8</t>
+  </si>
+  <si>
+    <t>HDMI(8)</t>
+  </si>
+  <si>
+    <t>HDMI(8).png</t>
+  </si>
+  <si>
+    <t>HD9</t>
+  </si>
+  <si>
+    <t>HDMI(9)</t>
+  </si>
+  <si>
+    <t>HDMI(9).png</t>
+  </si>
+  <si>
+    <t>HD10</t>
+  </si>
+  <si>
+    <t>HDMI(10)</t>
+  </si>
+  <si>
+    <t>HDMI(10).png</t>
+  </si>
+  <si>
+    <t>HD11</t>
+  </si>
+  <si>
+    <t>HDMI(11)</t>
+  </si>
+  <si>
+    <t>HDMI(11).png</t>
+  </si>
+  <si>
+    <t>HD12</t>
+  </si>
+  <si>
+    <t>HDMI(12)</t>
+  </si>
+  <si>
+    <t>HDMI(12).png</t>
+  </si>
+  <si>
+    <t>HD13</t>
+  </si>
+  <si>
+    <t>HDMI(13)</t>
+  </si>
+  <si>
+    <t>HDMI(13).png</t>
+  </si>
+  <si>
+    <t>HD14</t>
+  </si>
+  <si>
+    <t>HDMI(14)</t>
+  </si>
+  <si>
+    <t>HDMI(14).png</t>
+  </si>
+  <si>
+    <t>HD15</t>
+  </si>
+  <si>
+    <t>HDMI(15)</t>
+  </si>
+  <si>
+    <t>HDMI(15).png</t>
+  </si>
+  <si>
+    <t>HD16</t>
+  </si>
+  <si>
+    <t>HDMI(16)</t>
+  </si>
+  <si>
+    <t>HDMI(16).png</t>
+  </si>
+  <si>
+    <t>HD17</t>
+  </si>
+  <si>
+    <t>HDMI(17)</t>
+  </si>
+  <si>
+    <t>HDMI(17).png</t>
+  </si>
+  <si>
+    <t>KB1</t>
+  </si>
+  <si>
+    <t>Keyboard(1).png</t>
+  </si>
+  <si>
+    <t>KB2</t>
+  </si>
+  <si>
+    <t>Keyboard(2).png</t>
+  </si>
+  <si>
+    <t>KB3</t>
+  </si>
+  <si>
+    <t>Keyboard(3).png</t>
+  </si>
+  <si>
+    <t>KB4</t>
+  </si>
+  <si>
+    <t>Keyboard(4).png</t>
+  </si>
+  <si>
+    <t>KB5</t>
+  </si>
+  <si>
+    <t>Keyboard(5).png</t>
+  </si>
+  <si>
+    <t>KB6</t>
+  </si>
+  <si>
+    <t>Keyboard(6).png</t>
+  </si>
+  <si>
+    <t>KB7</t>
+  </si>
+  <si>
+    <t>Keyboard(7).png</t>
+  </si>
+  <si>
+    <t>KB8</t>
+  </si>
+  <si>
+    <t>Keyboard(8).png</t>
+  </si>
+  <si>
+    <t>KB9</t>
+  </si>
+  <si>
+    <t>Keyboard(9).png</t>
+  </si>
+  <si>
+    <t>KB10</t>
+  </si>
+  <si>
+    <t>Keyboard(10).png</t>
+  </si>
+  <si>
+    <t>KB11</t>
+  </si>
+  <si>
+    <t>Keyboard(11).png</t>
+  </si>
+  <si>
+    <t>KB12</t>
+  </si>
+  <si>
+    <t>Keyboard(12).png</t>
+  </si>
+  <si>
+    <t>KB13</t>
+  </si>
+  <si>
+    <t>Keyboard(13).png</t>
+  </si>
+  <si>
+    <t>KB14</t>
+  </si>
+  <si>
+    <t>Keyboard(14).png</t>
+  </si>
+  <si>
+    <t>KB15</t>
+  </si>
+  <si>
+    <t>Keyboard(15).png</t>
+  </si>
+  <si>
+    <t>KB16</t>
+  </si>
+  <si>
+    <t>Keyboard(16).png</t>
+  </si>
+  <si>
+    <t>KB17</t>
+  </si>
+  <si>
+    <t>Keyboard(17).png</t>
+  </si>
+  <si>
+    <t>KB18</t>
+  </si>
+  <si>
+    <t>Keyboard(18).png</t>
+  </si>
+  <si>
+    <t>KB19</t>
+  </si>
+  <si>
+    <t>Keyboard(19).png</t>
+  </si>
+  <si>
+    <t>KB20</t>
+  </si>
+  <si>
+    <t>Keyboard(20).png</t>
+  </si>
+  <si>
+    <t>KB21</t>
+  </si>
+  <si>
+    <t>Keyboard(21).png</t>
+  </si>
+  <si>
+    <t>KB22</t>
+  </si>
+  <si>
+    <t>Keyboard(22).png</t>
+  </si>
+  <si>
+    <t>KB23</t>
+  </si>
+  <si>
+    <t>Keyboard(23).png</t>
+  </si>
+  <si>
+    <t>KB24</t>
+  </si>
+  <si>
+    <t>Keyboard(24).png</t>
+  </si>
+  <si>
+    <t>KB25</t>
+  </si>
+  <si>
+    <t>Keyboard(25).png</t>
+  </si>
+  <si>
+    <t>KA1</t>
+  </si>
+  <si>
+    <t>kamera(1).png</t>
+  </si>
+  <si>
+    <t>KA2</t>
+  </si>
+  <si>
+    <t>kamera(2).png</t>
+  </si>
+  <si>
+    <t>KA3</t>
+  </si>
+  <si>
+    <t>kamera(3).png</t>
+  </si>
+  <si>
+    <t>KA4</t>
+  </si>
+  <si>
+    <t>kamera(4).png</t>
+  </si>
+  <si>
+    <t>KA5</t>
+  </si>
+  <si>
+    <t>kamera(5).png</t>
+  </si>
+  <si>
+    <t>KA6</t>
+  </si>
+  <si>
+    <t>kamera(6).png</t>
+  </si>
+  <si>
+    <t>KA7</t>
+  </si>
+  <si>
+    <t>kamera(7).png</t>
+  </si>
+  <si>
+    <t>KA8</t>
+  </si>
+  <si>
+    <t>kamera(8).png</t>
+  </si>
+  <si>
+    <t>KA9</t>
+  </si>
+  <si>
+    <t>kamera(9).png</t>
+  </si>
+  <si>
+    <t>KA10</t>
+  </si>
+  <si>
+    <t>kamera(10).png</t>
+  </si>
+  <si>
+    <t>KA11</t>
+  </si>
+  <si>
+    <t>kamera(11).png</t>
+  </si>
+  <si>
+    <t>KA12</t>
+  </si>
+  <si>
+    <t>kamera(12).png</t>
+  </si>
+  <si>
+    <t>KA13</t>
+  </si>
+  <si>
+    <t>kamera(13).png</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>Projector(1).png</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>Projector(2).png</t>
+  </si>
+  <si>
+    <t>PR3</t>
+  </si>
+  <si>
+    <t>Projector(3).png</t>
+  </si>
+  <si>
+    <t>PR4</t>
+  </si>
+  <si>
+    <t>Projector(4).png</t>
+  </si>
+  <si>
+    <t>PR5</t>
+  </si>
+  <si>
+    <t>Projector(5).png</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>PS(1)</t>
+  </si>
+  <si>
+    <t>PS(1).png</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>PS(2)</t>
+  </si>
+  <si>
+    <t>PS(2).png</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>PS(3)</t>
+  </si>
+  <si>
+    <t>PS(3).png</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>PS(4)</t>
+  </si>
+  <si>
+    <t>PS(4).png</t>
+  </si>
+  <si>
+    <t>PS5</t>
+  </si>
+  <si>
+    <t>PS(5)</t>
+  </si>
+  <si>
+    <t>PS(5).png</t>
+  </si>
+  <si>
+    <t>PS6</t>
+  </si>
+  <si>
+    <t>PS(6)</t>
+  </si>
+  <si>
+    <t>PS(6).png</t>
+  </si>
+  <si>
+    <t>SD1</t>
+  </si>
+  <si>
+    <t>SSD(1)</t>
+  </si>
+  <si>
+    <t>SSD(1).png</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>SSD(2)</t>
+  </si>
+  <si>
+    <t>SSD(2).png</t>
+  </si>
+  <si>
+    <t>SD3</t>
+  </si>
+  <si>
+    <t>SSD(3)</t>
+  </si>
+  <si>
+    <t>SSD(3).png</t>
+  </si>
+  <si>
+    <t>SD4</t>
+  </si>
+  <si>
+    <t>SSD(4)</t>
+  </si>
+  <si>
+    <t>SSD(4).png</t>
+  </si>
+  <si>
+    <t>SD5</t>
+  </si>
+  <si>
+    <t>SSD(5)</t>
+  </si>
+  <si>
+    <t>SSD(5).png</t>
+  </si>
+  <si>
+    <t>SD6</t>
+  </si>
+  <si>
+    <t>SSD(6)</t>
+  </si>
+  <si>
+    <t>SSD(6).png</t>
+  </si>
+  <si>
+    <t>SD7</t>
+  </si>
+  <si>
+    <t>SSD(7)</t>
+  </si>
+  <si>
+    <t>SSD(7).png</t>
+  </si>
+  <si>
+    <t>SD8</t>
+  </si>
+  <si>
+    <t>SSD(8)</t>
+  </si>
+  <si>
+    <t>SSD(8).png</t>
+  </si>
+  <si>
+    <t>SD9</t>
+  </si>
+  <si>
+    <t>SSD(9)</t>
+  </si>
+  <si>
+    <t>SSD(9).png</t>
+  </si>
+  <si>
+    <t>SD10</t>
+  </si>
+  <si>
+    <t>SSD(10)</t>
+  </si>
+  <si>
+    <t>SSD(10).png</t>
+  </si>
+  <si>
+    <t>SD11</t>
+  </si>
+  <si>
+    <t>SSD(11)</t>
+  </si>
+  <si>
+    <t>SSD(11).png</t>
+  </si>
+  <si>
+    <t>SD12</t>
+  </si>
+  <si>
+    <t>SSD(12)</t>
+  </si>
+  <si>
+    <t>SSD(12).png</t>
+  </si>
+  <si>
+    <t>SD13</t>
+  </si>
+  <si>
+    <t>SSD(13)</t>
+  </si>
+  <si>
+    <t>SSD(13).png</t>
+  </si>
+  <si>
+    <t>SD14</t>
+  </si>
+  <si>
+    <t>SSD(14)</t>
+  </si>
+  <si>
+    <t>SSD(14).png</t>
+  </si>
+  <si>
+    <t>SD15</t>
+  </si>
+  <si>
+    <t>SSD(15)</t>
+  </si>
+  <si>
+    <t>SSD(15).png</t>
+  </si>
+  <si>
+    <t>SD16</t>
+  </si>
+  <si>
+    <t>SSD(16)</t>
+  </si>
+  <si>
+    <t>SSD(16).png</t>
+  </si>
+  <si>
+    <t>SD17</t>
+  </si>
+  <si>
+    <t>SSD(17)</t>
+  </si>
+  <si>
+    <t>SSD(17).png</t>
+  </si>
+  <si>
+    <t>SD18</t>
+  </si>
+  <si>
+    <t>SSD(18)</t>
+  </si>
+  <si>
+    <t>SSD(18).png</t>
+  </si>
+  <si>
+    <t>SD19</t>
+  </si>
+  <si>
+    <t>SSD(19)</t>
+  </si>
+  <si>
+    <t>SSD(19).png</t>
+  </si>
+  <si>
+    <t>SD20</t>
+  </si>
+  <si>
+    <t>SSD(20)</t>
+  </si>
+  <si>
+    <t>SSD(20).png</t>
+  </si>
+  <si>
+    <t>SD21</t>
+  </si>
+  <si>
+    <t>SSD(21)</t>
+  </si>
+  <si>
+    <t>SSD(21).png</t>
+  </si>
+  <si>
+    <t>SD22</t>
+  </si>
+  <si>
+    <t>SSD(22)</t>
+  </si>
+  <si>
+    <t>SSD(22).png</t>
+  </si>
+  <si>
+    <t>SD23</t>
+  </si>
+  <si>
+    <t>SSD(23)</t>
+  </si>
+  <si>
+    <t>SSD(23).png</t>
+  </si>
+  <si>
+    <t>SD24</t>
+  </si>
+  <si>
+    <t>SSD(24)</t>
+  </si>
+  <si>
+    <t>SSD(24).png</t>
+  </si>
+  <si>
+    <t>SD25</t>
+  </si>
+  <si>
+    <t>SSD(25)</t>
+  </si>
+  <si>
+    <t>SSD(25).png</t>
+  </si>
+  <si>
+    <t>SD26</t>
+  </si>
+  <si>
+    <t>SSD(26)</t>
+  </si>
+  <si>
+    <t>SSD(26).png</t>
+  </si>
+  <si>
+    <t>SD27</t>
+  </si>
+  <si>
+    <t>SSD(27)</t>
+  </si>
+  <si>
+    <t>SSD(27).png</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>Terminal(1).png</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>Terminal(2).png</t>
+  </si>
+  <si>
+    <t>TE3</t>
+  </si>
+  <si>
+    <t>Terminal(3).png</t>
+  </si>
+  <si>
+    <t>TE4</t>
+  </si>
+  <si>
+    <t>Terminal(4).png</t>
+  </si>
+  <si>
+    <t>TE5</t>
+  </si>
+  <si>
+    <t>Terminal(5).png</t>
+  </si>
+  <si>
+    <t>TE6</t>
+  </si>
+  <si>
+    <t>Terminal(6).png</t>
+  </si>
+  <si>
+    <t>US1</t>
+  </si>
+  <si>
+    <t>USB(1)</t>
+  </si>
+  <si>
+    <t>USB(1).png</t>
+  </si>
+  <si>
+    <t>US2</t>
+  </si>
+  <si>
+    <t>USB(2)</t>
+  </si>
+  <si>
+    <t>USB(2).png</t>
+  </si>
+  <si>
+    <t>US3</t>
+  </si>
+  <si>
+    <t>USB(3)</t>
+  </si>
+  <si>
+    <t>USB(3).png</t>
+  </si>
+  <si>
+    <t>US4</t>
+  </si>
+  <si>
+    <t>USB(4)</t>
+  </si>
+  <si>
+    <t>USB(4).png</t>
+  </si>
+  <si>
+    <t>US5</t>
+  </si>
+  <si>
+    <t>USB(5)</t>
+  </si>
+  <si>
+    <t>USB(5).png</t>
+  </si>
+  <si>
+    <t>US6</t>
+  </si>
+  <si>
+    <t>USB(6)</t>
+  </si>
+  <si>
+    <t>USB(6).png</t>
+  </si>
+  <si>
+    <t>US7</t>
+  </si>
+  <si>
+    <t>USB(7)</t>
+  </si>
+  <si>
+    <t>USB(7).png</t>
+  </si>
+  <si>
+    <t>US8</t>
+  </si>
+  <si>
+    <t>USB(8)</t>
+  </si>
+  <si>
+    <t>USB(8).png</t>
+  </si>
+  <si>
+    <t>US9</t>
+  </si>
+  <si>
+    <t>USB(9)</t>
+  </si>
+  <si>
+    <t>USB(9).png</t>
+  </si>
+  <si>
+    <t>LA1</t>
+  </si>
+  <si>
+    <t>Laptop(1).png</t>
+  </si>
+  <si>
+    <t>LA2</t>
+  </si>
+  <si>
+    <t>Laptop(2).png</t>
+  </si>
+  <si>
+    <t>LA3</t>
+  </si>
+  <si>
+    <t>Laptop(3).png</t>
+  </si>
+  <si>
+    <t>LA4</t>
+  </si>
+  <si>
+    <t>Laptop(4).png</t>
+  </si>
+  <si>
+    <t>LA5</t>
+  </si>
+  <si>
+    <t>Laptop(5).png</t>
+  </si>
+  <si>
+    <t>LA6</t>
+  </si>
+  <si>
+    <t>Laptop(6).png</t>
+  </si>
+  <si>
+    <t>LA7</t>
+  </si>
+  <si>
+    <t>Laptop(7).png</t>
+  </si>
+  <si>
+    <t>LA8</t>
+  </si>
+  <si>
+    <t>Laptop(8).png</t>
+  </si>
+  <si>
+    <t>LA9</t>
+  </si>
+  <si>
+    <t>Laptop(9).png</t>
+  </si>
+  <si>
+    <t>LA10</t>
+  </si>
+  <si>
+    <t>Laptop(10).png</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>V21</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Z18</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>Habis</t>
+  </si>
+  <si>
+    <t>MO1</t>
+  </si>
+  <si>
+    <t>Monitor(1).png</t>
+  </si>
+  <si>
+    <t>MO2</t>
+  </si>
+  <si>
+    <t>Monitor(2).png</t>
+  </si>
+  <si>
+    <t>MO3</t>
+  </si>
+  <si>
+    <t>Monitor(3).png</t>
+  </si>
+  <si>
+    <t>MO4</t>
+  </si>
+  <si>
+    <t>Monitor(4).png</t>
+  </si>
+  <si>
+    <t>MO5</t>
+  </si>
+  <si>
+    <t>Monitor(5).png</t>
+  </si>
+  <si>
+    <t>MO6</t>
+  </si>
+  <si>
+    <t>Monitor(6).png</t>
+  </si>
+  <si>
+    <t>MO7</t>
+  </si>
+  <si>
+    <t>Monitor(7).png</t>
+  </si>
+  <si>
+    <t>MO8</t>
+  </si>
+  <si>
+    <t>Monitor(8).png</t>
+  </si>
+  <si>
+    <t>MO9</t>
+  </si>
+  <si>
+    <t>Monitor(9).png</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>O22</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>L26</t>
+  </si>
+  <si>
+    <t>Y25</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>Y19</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>W15</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>V27</t>
+  </si>
+  <si>
+    <t>Y24</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>I27</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>G27</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Q28</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>V20</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>L30</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>K19</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>MU1</t>
+  </si>
+  <si>
+    <t>Mouse(1).png</t>
+  </si>
+  <si>
+    <t>MU2</t>
+  </si>
+  <si>
+    <t>Mouse(2).png</t>
+  </si>
+  <si>
+    <t>MU3</t>
+  </si>
+  <si>
+    <t>Mouse(3).png</t>
+  </si>
+  <si>
+    <t>MU4</t>
+  </si>
+  <si>
+    <t>Mouse(4).png</t>
+  </si>
+  <si>
+    <t>MU5</t>
+  </si>
+  <si>
+    <t>Mouse(5).png</t>
+  </si>
+  <si>
+    <t>INFOCUS</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
+  </si>
+  <si>
+    <t>KOMPUTER</t>
+  </si>
+  <si>
+    <t>HEADSET(1)</t>
+  </si>
+  <si>
+    <t>HEADSET(2)</t>
+  </si>
+  <si>
+    <t>HEADSET(3)</t>
+  </si>
+  <si>
+    <t>HEADSET(4)</t>
+  </si>
+  <si>
+    <t>HEADSET(5)</t>
+  </si>
+  <si>
+    <t>HEADSET(6)</t>
+  </si>
+  <si>
+    <t>HEADSET(7)</t>
+  </si>
+  <si>
+    <t>HEADSET(8)</t>
+  </si>
+  <si>
+    <t>HEADSET(9)</t>
+  </si>
+  <si>
+    <t>HEADSET(10)</t>
+  </si>
+  <si>
+    <t>HEADSET(11)</t>
+  </si>
+  <si>
+    <t>HEADSET(12)</t>
+  </si>
+  <si>
+    <t>HEADSET(13)</t>
+  </si>
+  <si>
+    <t>HEADSET(14)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(1)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(2)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(3)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(4)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(5)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(6)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(7)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(8)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(9)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(10)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(11)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(12)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(13)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(14)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(15)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(16)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(17)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(18)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(19)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(20)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(21)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(22)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(23)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(24)</t>
+  </si>
+  <si>
+    <t>KEYBOARD(25)</t>
+  </si>
+  <si>
+    <t>KAMERA(1)</t>
+  </si>
+  <si>
+    <t>KAMERA(2)</t>
+  </si>
+  <si>
+    <t>KAMERA(3)</t>
+  </si>
+  <si>
+    <t>KAMERA(4)</t>
+  </si>
+  <si>
+    <t>KAMERA(5)</t>
+  </si>
+  <si>
+    <t>KAMERA(6)</t>
+  </si>
+  <si>
+    <t>KAMERA(7)</t>
+  </si>
+  <si>
+    <t>KAMERA(8)</t>
+  </si>
+  <si>
+    <t>KAMERA(9)</t>
+  </si>
+  <si>
+    <t>KAMERA(10)</t>
+  </si>
+  <si>
+    <t>KAMERA(11)</t>
+  </si>
+  <si>
+    <t>KAMERA(12)</t>
+  </si>
+  <si>
+    <t>KAMERA(13)</t>
+  </si>
+  <si>
+    <t>PROJECTOR(1)</t>
+  </si>
+  <si>
+    <t>PROJECTOR(2)</t>
+  </si>
+  <si>
+    <t>PROJECTOR(3)</t>
+  </si>
+  <si>
+    <t>PROJECTOR(4)</t>
+  </si>
+  <si>
+    <t>PROJECTOR(5)</t>
+  </si>
+  <si>
+    <t>TERMINAL(1)</t>
+  </si>
+  <si>
+    <t>TERMINAL(2)</t>
+  </si>
+  <si>
+    <t>TERMINAL(3)</t>
+  </si>
+  <si>
+    <t>TERMINAL(4)</t>
+  </si>
+  <si>
+    <t>TERMINAL(5)</t>
+  </si>
+  <si>
+    <t>TERMINAL(6)</t>
+  </si>
+  <si>
+    <t>LAPTOP(1)</t>
+  </si>
+  <si>
+    <t>LAPTOP(2)</t>
+  </si>
+  <si>
+    <t>LAPTOP(3)</t>
+  </si>
+  <si>
+    <t>LAPTOP(4)</t>
+  </si>
+  <si>
+    <t>LAPTOP(5)</t>
+  </si>
+  <si>
+    <t>LAPTOP(6)</t>
+  </si>
+  <si>
+    <t>LAPTOP(7)</t>
+  </si>
+  <si>
+    <t>LAPTOP(8)</t>
+  </si>
+  <si>
+    <t>LAPTOP(9)</t>
+  </si>
+  <si>
+    <t>LAPTOP(10)</t>
+  </si>
+  <si>
+    <t>MONITOR(1)</t>
+  </si>
+  <si>
+    <t>MONITOR(2)</t>
+  </si>
+  <si>
+    <t>MONITOR(3)</t>
+  </si>
+  <si>
+    <t>MONITOR(4)</t>
+  </si>
+  <si>
+    <t>MONITOR(5)</t>
+  </si>
+  <si>
+    <t>MONITOR(6)</t>
+  </si>
+  <si>
+    <t>MONITOR(7)</t>
+  </si>
+  <si>
+    <t>MONITOR(8)</t>
+  </si>
+  <si>
+    <t>MONITOR(9)</t>
+  </si>
+  <si>
+    <t>MOUSE(1)</t>
+  </si>
+  <si>
+    <t>MOUSE(2)</t>
+  </si>
+  <si>
+    <t>MOUSE(3)</t>
+  </si>
+  <si>
+    <t>MOUSE(4)</t>
+  </si>
+  <si>
+    <t>MOUSE(5)</t>
   </si>
 </sst>
 </file>
@@ -890,1695 +2482,4180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C1">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C17">
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C20">
         <v>12</v>
       </c>
       <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
         <v>1</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
       <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C24">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C26">
         <v>12</v>
       </c>
       <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C27">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C29">
         <v>12</v>
       </c>
       <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>386</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
       <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>387</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C33">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C35">
         <v>12</v>
       </c>
       <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>389</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C36">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C38">
         <v>12</v>
       </c>
       <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C39">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="B40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" t="s">
         <v>1</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" t="s">
         <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>394</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C42">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C44">
         <v>12</v>
       </c>
       <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C45">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C47">
         <v>12</v>
       </c>
       <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
         <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C48">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C50">
         <v>12</v>
       </c>
       <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C51">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C53">
         <v>12</v>
       </c>
       <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
         <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C54">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C56">
         <v>12</v>
       </c>
       <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
         <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C57">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C59">
         <v>12</v>
       </c>
       <c r="D59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
         <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C60">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C62">
         <v>12</v>
       </c>
       <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
         <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C63">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C65">
         <v>12</v>
       </c>
       <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
         <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C66">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C67">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C68">
         <v>12</v>
       </c>
       <c r="D68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
         <v>2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C69">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C71">
         <v>12</v>
       </c>
       <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
         <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>416</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C72">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C73">
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C74">
         <v>12</v>
       </c>
       <c r="D74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
         <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>415</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C75">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="B76" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C77">
         <v>12</v>
       </c>
       <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
         <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>420</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C78">
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C80">
         <v>12</v>
       </c>
       <c r="D80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
         <v>2</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>422</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C81">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C82">
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>424</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C83">
         <v>12</v>
       </c>
       <c r="D83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
         <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C84">
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>426</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C86">
         <v>12</v>
       </c>
       <c r="D86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
         <v>2</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>427</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C87">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C88">
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C89">
         <v>12</v>
       </c>
       <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
         <v>2</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C90">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="B91" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C91">
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C92">
         <v>12</v>
       </c>
       <c r="D92" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
         <v>2</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>430</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C93">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C94">
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C95">
         <v>12</v>
       </c>
       <c r="D95" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
         <v>2</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>433</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C96">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="C97">
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="C98">
         <v>12</v>
       </c>
       <c r="D98" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
         <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>436</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="C99">
         <v>14</v>
       </c>
       <c r="D99" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>450</v>
+      </c>
+      <c r="C100">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>451</v>
+      </c>
+      <c r="C101">
+        <v>54</v>
+      </c>
+      <c r="D101" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>452</v>
+      </c>
+      <c r="C102">
+        <v>27</v>
+      </c>
+      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>453</v>
+      </c>
+      <c r="C103">
+        <v>81</v>
+      </c>
+      <c r="D103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" t="s">
+        <v>454</v>
+      </c>
+      <c r="C104">
+        <v>88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>455</v>
+      </c>
+      <c r="C105">
+        <v>89</v>
+      </c>
+      <c r="D105" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" t="s">
+        <v>456</v>
+      </c>
+      <c r="C106">
+        <v>84</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>457</v>
+      </c>
+      <c r="C107">
+        <v>19</v>
+      </c>
+      <c r="D107" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>458</v>
+      </c>
+      <c r="C108">
+        <v>51</v>
+      </c>
+      <c r="D108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" t="s">
+        <v>459</v>
+      </c>
+      <c r="C109">
+        <v>99</v>
+      </c>
+      <c r="D109" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>460</v>
+      </c>
+      <c r="C110">
+        <v>97</v>
+      </c>
+      <c r="D110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" t="s">
+        <v>461</v>
+      </c>
+      <c r="C111">
+        <v>79</v>
+      </c>
+      <c r="D111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>462</v>
+      </c>
+      <c r="C112">
+        <v>37</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" t="s">
+        <v>463</v>
+      </c>
+      <c r="C113">
+        <v>99</v>
+      </c>
+      <c r="D113" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114">
+        <v>62</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116">
+        <v>98</v>
+      </c>
+      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119">
+        <v>34</v>
+      </c>
+      <c r="D119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122">
+        <v>78</v>
+      </c>
+      <c r="D122" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123">
+        <v>95</v>
+      </c>
+      <c r="D123" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>65</v>
+      </c>
+      <c r="B125" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>68</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127">
+        <v>30</v>
+      </c>
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B128" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128">
+        <v>98</v>
+      </c>
+      <c r="D128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>80</v>
+      </c>
+      <c r="B130" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130">
+        <v>92</v>
+      </c>
+      <c r="D130" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" t="s">
+        <v>464</v>
+      </c>
+      <c r="C131">
+        <v>44</v>
+      </c>
+      <c r="D131" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" t="s">
+        <v>465</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" t="s">
+        <v>466</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>89</v>
+      </c>
+      <c r="B134" t="s">
+        <v>467</v>
+      </c>
+      <c r="C134">
+        <v>42</v>
+      </c>
+      <c r="D134" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" t="s">
+        <v>468</v>
+      </c>
+      <c r="C135">
+        <v>84</v>
+      </c>
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" t="s">
+        <v>469</v>
+      </c>
+      <c r="C136">
+        <v>78</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>95</v>
+      </c>
+      <c r="B137" t="s">
+        <v>470</v>
+      </c>
+      <c r="C137">
+        <v>87</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" t="s">
+        <v>471</v>
+      </c>
+      <c r="C138">
+        <v>78</v>
+      </c>
+      <c r="D138" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>99</v>
+      </c>
+      <c r="B139" t="s">
+        <v>472</v>
+      </c>
+      <c r="C139">
+        <v>29</v>
+      </c>
+      <c r="D139" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>101</v>
+      </c>
+      <c r="B140" t="s">
+        <v>473</v>
+      </c>
+      <c r="C140">
+        <v>87</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" t="s">
+        <v>474</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>105</v>
+      </c>
+      <c r="B142" t="s">
+        <v>475</v>
+      </c>
+      <c r="C142">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" t="s">
+        <v>476</v>
+      </c>
+      <c r="C143">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" t="s">
+        <v>477</v>
+      </c>
+      <c r="C144">
+        <v>93</v>
+      </c>
+      <c r="D144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145" t="s">
+        <v>478</v>
+      </c>
+      <c r="C145">
+        <v>95</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>113</v>
+      </c>
+      <c r="B146" t="s">
+        <v>479</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>115</v>
+      </c>
+      <c r="B147" t="s">
+        <v>480</v>
+      </c>
+      <c r="C147">
+        <v>56</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>117</v>
+      </c>
+      <c r="B148" t="s">
+        <v>481</v>
+      </c>
+      <c r="C148">
+        <v>78</v>
+      </c>
+      <c r="D148" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>119</v>
+      </c>
+      <c r="B149" t="s">
+        <v>482</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" t="s">
+        <v>483</v>
+      </c>
+      <c r="C150">
+        <v>50</v>
+      </c>
+      <c r="D150" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>123</v>
+      </c>
+      <c r="B151" t="s">
+        <v>484</v>
+      </c>
+      <c r="C151">
+        <v>38</v>
+      </c>
+      <c r="D151" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" t="s">
+        <v>485</v>
+      </c>
+      <c r="C152">
+        <v>70</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>127</v>
+      </c>
+      <c r="B153" t="s">
+        <v>486</v>
+      </c>
+      <c r="C153">
+        <v>37</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" t="s">
+        <v>487</v>
+      </c>
+      <c r="C154">
+        <v>62</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" t="s">
+        <v>488</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" t="s">
+        <v>489</v>
+      </c>
+      <c r="C156">
+        <v>60</v>
+      </c>
+      <c r="D156" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>135</v>
+      </c>
+      <c r="B157" t="s">
+        <v>490</v>
+      </c>
+      <c r="C157">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" t="s">
+        <v>491</v>
+      </c>
+      <c r="C158">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>139</v>
+      </c>
+      <c r="B159" t="s">
+        <v>492</v>
+      </c>
+      <c r="C159">
+        <v>77</v>
+      </c>
+      <c r="D159" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" t="s">
+        <v>493</v>
+      </c>
+      <c r="C160">
+        <v>69</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161" t="s">
+        <v>494</v>
+      </c>
+      <c r="C161">
+        <v>49</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" t="s">
+        <v>495</v>
+      </c>
+      <c r="C162">
+        <v>46</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>147</v>
+      </c>
+      <c r="B163" t="s">
+        <v>496</v>
+      </c>
+      <c r="C163">
+        <v>53</v>
+      </c>
+      <c r="D163" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" t="s">
+        <v>497</v>
+      </c>
+      <c r="C164">
+        <v>59</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165" t="s">
+        <v>498</v>
+      </c>
+      <c r="C165">
+        <v>80</v>
+      </c>
+      <c r="D165" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>153</v>
+      </c>
+      <c r="B166" t="s">
+        <v>499</v>
+      </c>
+      <c r="C166">
+        <v>88</v>
+      </c>
+      <c r="D166" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>155</v>
+      </c>
+      <c r="B167" t="s">
+        <v>500</v>
+      </c>
+      <c r="C167">
+        <v>35</v>
+      </c>
+      <c r="D167" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" t="s">
+        <v>501</v>
+      </c>
+      <c r="C168">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>502</v>
+      </c>
+      <c r="C169">
+        <v>22</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>161</v>
+      </c>
+      <c r="B170" t="s">
+        <v>503</v>
+      </c>
+      <c r="C170">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" t="s">
+        <v>504</v>
+      </c>
+      <c r="C171">
+        <v>22</v>
+      </c>
+      <c r="D171" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" t="s">
+        <v>505</v>
+      </c>
+      <c r="C172">
+        <v>22</v>
+      </c>
+      <c r="D172" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173" t="s">
+        <v>506</v>
+      </c>
+      <c r="C173">
+        <v>22</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175">
+        <v>45</v>
+      </c>
+      <c r="D175" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176">
+        <v>67</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="s">
+        <v>185</v>
+      </c>
+      <c r="C179">
+        <v>83</v>
+      </c>
+      <c r="D179" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" t="s">
+        <v>188</v>
+      </c>
+      <c r="C180">
+        <v>27</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181">
+        <v>94</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>194</v>
+      </c>
+      <c r="C182">
+        <v>44</v>
+      </c>
+      <c r="D182" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>196</v>
+      </c>
+      <c r="B183" t="s">
+        <v>197</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>199</v>
+      </c>
+      <c r="B184" t="s">
+        <v>200</v>
+      </c>
+      <c r="C184">
+        <v>14</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185">
+        <v>37</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>205</v>
+      </c>
+      <c r="B186" t="s">
+        <v>206</v>
+      </c>
+      <c r="C186">
+        <v>31</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187" t="s">
+        <v>209</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>340</v>
+      </c>
+      <c r="E187" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>211</v>
+      </c>
+      <c r="B188" t="s">
+        <v>212</v>
+      </c>
+      <c r="C188">
+        <v>95</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>214</v>
+      </c>
+      <c r="B189" t="s">
+        <v>215</v>
+      </c>
+      <c r="C189">
+        <v>88</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>217</v>
+      </c>
+      <c r="B190" t="s">
+        <v>218</v>
+      </c>
+      <c r="C190">
+        <v>91</v>
+      </c>
+      <c r="D190" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" t="s">
+        <v>221</v>
+      </c>
+      <c r="C191">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>223</v>
+      </c>
+      <c r="B192" t="s">
+        <v>224</v>
+      </c>
+      <c r="C192">
+        <v>23</v>
+      </c>
+      <c r="D192" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>226</v>
+      </c>
+      <c r="B193" t="s">
+        <v>227</v>
+      </c>
+      <c r="C193">
         <v>2</v>
       </c>
-      <c r="E99" t="s">
-        <v>9</v>
+      <c r="D193" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>229</v>
+      </c>
+      <c r="B194" t="s">
+        <v>230</v>
+      </c>
+      <c r="C194">
+        <v>54</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>232</v>
+      </c>
+      <c r="B195" t="s">
+        <v>233</v>
+      </c>
+      <c r="C195">
+        <v>49</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>235</v>
+      </c>
+      <c r="B196" t="s">
+        <v>236</v>
+      </c>
+      <c r="C196">
+        <v>45</v>
+      </c>
+      <c r="D196" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>238</v>
+      </c>
+      <c r="B197" t="s">
+        <v>239</v>
+      </c>
+      <c r="C197">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>241</v>
+      </c>
+      <c r="B198" t="s">
+        <v>242</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>244</v>
+      </c>
+      <c r="B199" t="s">
+        <v>245</v>
+      </c>
+      <c r="C199">
+        <v>46</v>
+      </c>
+      <c r="D199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>247</v>
+      </c>
+      <c r="B200" t="s">
+        <v>248</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>250</v>
+      </c>
+      <c r="B201" t="s">
+        <v>251</v>
+      </c>
+      <c r="C201">
+        <v>48</v>
+      </c>
+      <c r="D201" t="s">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>253</v>
+      </c>
+      <c r="B202" t="s">
+        <v>254</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>256</v>
+      </c>
+      <c r="B203" t="s">
+        <v>257</v>
+      </c>
+      <c r="C203">
+        <v>100</v>
+      </c>
+      <c r="D203" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>259</v>
+      </c>
+      <c r="B204" t="s">
+        <v>260</v>
+      </c>
+      <c r="C204">
+        <v>98</v>
+      </c>
+      <c r="D204" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>262</v>
+      </c>
+      <c r="B205" t="s">
+        <v>263</v>
+      </c>
+      <c r="C205">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>265</v>
+      </c>
+      <c r="B206" t="s">
+        <v>266</v>
+      </c>
+      <c r="C206">
+        <v>14</v>
+      </c>
+      <c r="D206" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>268</v>
+      </c>
+      <c r="B207" t="s">
+        <v>507</v>
+      </c>
+      <c r="C207">
+        <v>100</v>
+      </c>
+      <c r="D207" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208" t="s">
+        <v>508</v>
+      </c>
+      <c r="C208">
+        <v>85</v>
+      </c>
+      <c r="D208" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>272</v>
+      </c>
+      <c r="B209" t="s">
+        <v>509</v>
+      </c>
+      <c r="C209">
+        <v>52</v>
+      </c>
+      <c r="D209" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>274</v>
+      </c>
+      <c r="B210" t="s">
+        <v>510</v>
+      </c>
+      <c r="C210">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>276</v>
+      </c>
+      <c r="B211" t="s">
+        <v>511</v>
+      </c>
+      <c r="C211">
+        <v>31</v>
+      </c>
+      <c r="D211" t="s">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>278</v>
+      </c>
+      <c r="B212" t="s">
+        <v>512</v>
+      </c>
+      <c r="C212">
+        <v>92</v>
+      </c>
+      <c r="D212" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>280</v>
+      </c>
+      <c r="B213" t="s">
+        <v>281</v>
+      </c>
+      <c r="C213">
+        <v>62</v>
+      </c>
+      <c r="D213" t="s">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>283</v>
+      </c>
+      <c r="B214" t="s">
+        <v>284</v>
+      </c>
+      <c r="C214">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>286</v>
+      </c>
+      <c r="B215" t="s">
+        <v>287</v>
+      </c>
+      <c r="C215">
+        <v>84</v>
+      </c>
+      <c r="D215" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>289</v>
+      </c>
+      <c r="B216" t="s">
+        <v>290</v>
+      </c>
+      <c r="C216">
+        <v>80</v>
+      </c>
+      <c r="D216" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>292</v>
+      </c>
+      <c r="B217" t="s">
+        <v>293</v>
+      </c>
+      <c r="C217">
+        <v>76</v>
+      </c>
+      <c r="D217" t="s">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>295</v>
+      </c>
+      <c r="B218" t="s">
+        <v>296</v>
+      </c>
+      <c r="C218">
+        <v>33</v>
+      </c>
+      <c r="D218" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>298</v>
+      </c>
+      <c r="B219" t="s">
+        <v>299</v>
+      </c>
+      <c r="C219">
+        <v>84</v>
+      </c>
+      <c r="D219" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>301</v>
+      </c>
+      <c r="B220" t="s">
+        <v>302</v>
+      </c>
+      <c r="C220">
+        <v>14</v>
+      </c>
+      <c r="D220" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>304</v>
+      </c>
+      <c r="B221" t="s">
+        <v>305</v>
+      </c>
+      <c r="C221">
+        <v>81</v>
+      </c>
+      <c r="D221" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>307</v>
+      </c>
+      <c r="B222" t="s">
+        <v>513</v>
+      </c>
+      <c r="C222">
+        <v>32</v>
+      </c>
+      <c r="D222" t="s">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>309</v>
+      </c>
+      <c r="B223" t="s">
+        <v>514</v>
+      </c>
+      <c r="C223">
+        <v>45</v>
+      </c>
+      <c r="D223" t="s">
+        <v>0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>311</v>
+      </c>
+      <c r="B224" t="s">
+        <v>515</v>
+      </c>
+      <c r="C224">
+        <v>53</v>
+      </c>
+      <c r="D224" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>313</v>
+      </c>
+      <c r="B225" t="s">
+        <v>516</v>
+      </c>
+      <c r="C225">
+        <v>66</v>
+      </c>
+      <c r="D225" t="s">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>315</v>
+      </c>
+      <c r="B226" t="s">
+        <v>517</v>
+      </c>
+      <c r="C226">
+        <v>97</v>
+      </c>
+      <c r="D226" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>317</v>
+      </c>
+      <c r="B227" t="s">
+        <v>518</v>
+      </c>
+      <c r="C227">
+        <v>50</v>
+      </c>
+      <c r="D227" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>319</v>
+      </c>
+      <c r="B228" t="s">
+        <v>519</v>
+      </c>
+      <c r="C228">
+        <v>33</v>
+      </c>
+      <c r="D228" t="s">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>321</v>
+      </c>
+      <c r="B229" t="s">
+        <v>520</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>323</v>
+      </c>
+      <c r="B230" t="s">
+        <v>521</v>
+      </c>
+      <c r="C230">
+        <v>99</v>
+      </c>
+      <c r="D230" t="s">
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>325</v>
+      </c>
+      <c r="B231" t="s">
+        <v>522</v>
+      </c>
+      <c r="C231">
+        <v>37</v>
+      </c>
+      <c r="D231" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>341</v>
+      </c>
+      <c r="B232" t="s">
+        <v>523</v>
+      </c>
+      <c r="C232">
+        <v>47</v>
+      </c>
+      <c r="D232" t="s">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>343</v>
+      </c>
+      <c r="B233" t="s">
+        <v>524</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>345</v>
+      </c>
+      <c r="B234" t="s">
+        <v>525</v>
+      </c>
+      <c r="C234">
+        <v>35</v>
+      </c>
+      <c r="D234" t="s">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>347</v>
+      </c>
+      <c r="B235" t="s">
+        <v>526</v>
+      </c>
+      <c r="C235">
+        <v>29</v>
+      </c>
+      <c r="D235" t="s">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>349</v>
+      </c>
+      <c r="B236" t="s">
+        <v>527</v>
+      </c>
+      <c r="C236">
+        <v>66</v>
+      </c>
+      <c r="D236" t="s">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>351</v>
+      </c>
+      <c r="B237" t="s">
+        <v>528</v>
+      </c>
+      <c r="C237">
+        <v>10</v>
+      </c>
+      <c r="D237" t="s">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>353</v>
+      </c>
+      <c r="B238" t="s">
+        <v>529</v>
+      </c>
+      <c r="C238">
+        <v>32</v>
+      </c>
+      <c r="D238" t="s">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>355</v>
+      </c>
+      <c r="B239" t="s">
+        <v>530</v>
+      </c>
+      <c r="C239">
+        <v>17</v>
+      </c>
+      <c r="D239" t="s">
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>357</v>
+      </c>
+      <c r="B240" t="s">
+        <v>531</v>
+      </c>
+      <c r="C240">
+        <v>89</v>
+      </c>
+      <c r="D240" t="s">
+        <v>0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>437</v>
+      </c>
+      <c r="B241" t="s">
+        <v>532</v>
+      </c>
+      <c r="C241">
+        <v>4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>439</v>
+      </c>
+      <c r="B242" t="s">
+        <v>533</v>
+      </c>
+      <c r="C242">
+        <v>23</v>
+      </c>
+      <c r="D242" t="s">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>441</v>
+      </c>
+      <c r="B243" t="s">
+        <v>534</v>
+      </c>
+      <c r="C243">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>443</v>
+      </c>
+      <c r="B244" t="s">
+        <v>535</v>
+      </c>
+      <c r="C244">
+        <v>12</v>
+      </c>
+      <c r="D244" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>445</v>
+      </c>
+      <c r="B245" t="s">
+        <v>536</v>
+      </c>
+      <c r="C245">
+        <v>14</v>
+      </c>
+      <c r="D245" t="s">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
